--- a/NewCDSDataFromClient/CDS_Definition.xlsx
+++ b/NewCDSDataFromClient/CDS_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_db\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA7444-8E29-410A-8F00-072DD0FC75C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07E12CD-E5E6-42A8-832F-9BE15E5C8FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition_General" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4990CF-594D-44E7-8ED2-EB98FC4D9840}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NewCDSDataFromClient/CDS_Definition.xlsx
+++ b/NewCDSDataFromClient/CDS_Definition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07E12CD-E5E6-42A8-832F-9BE15E5C8FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464F189B-12DE-4EED-A7B3-B1072DE19D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="131">
   <si>
     <t>Question</t>
   </si>
@@ -405,6 +405,21 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Various definitions of financial aid.</t>
+  </si>
+  <si>
+    <t>Various definitions of terms on the common data set.</t>
   </si>
 </sst>
 </file>
@@ -737,16 +752,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1195,6 +1210,22 @@
       </c>
       <c r="B56" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1207,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4990CF-594D-44E7-8ED2-EB98FC4D9840}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,16 +1719,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756BDE7E-EB4E-4DC0-95D6-8C6E695703B2}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1796,6 +1827,22 @@
         <v>125</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
